--- a/New Ops.xlsx
+++ b/New Ops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypem\Desktop\Verilog\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF5B003-C6A3-44D1-9CE6-E70416BF3495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E2B1C4-7FF8-48ED-9251-D802EE40855D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="156" windowWidth="18480" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="122">
   <si>
     <t>Compute</t>
   </si>
@@ -91,24 +91,6 @@
   </si>
   <si>
     <t>Rn = Rx * Ry</t>
-  </si>
-  <si>
-    <t>MRF = Rx * Ry</t>
-  </si>
-  <si>
-    <t>Rn = MRF + Rx * Ry</t>
-  </si>
-  <si>
-    <t>MRF = MRF + Rx * Ry</t>
-  </si>
-  <si>
-    <t>Rn = MRF – Rx * Ry</t>
-  </si>
-  <si>
-    <t>MRF = MRF – Rx * Ry</t>
-  </si>
-  <si>
-    <t>Rn = SAT MRF</t>
   </si>
   <si>
     <t>r</t>
@@ -502,6 +484,54 @@
   </si>
   <si>
     <t>rts</t>
+  </si>
+  <si>
+    <t>Used only if Classification bits are 00</t>
+  </si>
+  <si>
+    <t>Rn = MR0</t>
+  </si>
+  <si>
+    <t>Rn = MR1</t>
+  </si>
+  <si>
+    <t>Rn = MR2</t>
+  </si>
+  <si>
+    <t>Rn = SAT MR</t>
+  </si>
+  <si>
+    <t>MR0 = Rx</t>
+  </si>
+  <si>
+    <t>MR1 = Rx</t>
+  </si>
+  <si>
+    <t>MR2 = Rx</t>
+  </si>
+  <si>
+    <t>MR = SAT MR</t>
+  </si>
+  <si>
+    <t>MR = Rx * Ry</t>
+  </si>
+  <si>
+    <t>Rn = MR + Rx * Ry</t>
+  </si>
+  <si>
+    <t>MR = MR + Rx * Ry</t>
+  </si>
+  <si>
+    <t>Rn = MR – Rx * Ry</t>
+  </si>
+  <si>
+    <t>MR = MR – Rx * Ry</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>finish</t>
   </si>
 </sst>
 </file>
@@ -531,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +592,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -575,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,12 +625,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -877,11 +920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ81"/>
+  <dimension ref="A1:AJ89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,77 +1048,77 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="A4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:36" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1107,7 +1150,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1138,8 +1181,8 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>111</v>
+      <c r="A10" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1168,7 +1211,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1194,20 +1237,20 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="J11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1233,20 +1276,20 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="J12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1266,41 +1309,41 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
+      <c r="J13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1317,40 +1360,40 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="AC14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="AC14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1367,43 +1410,43 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="U15" s="8" t="s">
+      <c r="J15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="U15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
       <c r="AA15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1428,30 +1471,30 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="U16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AC16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
+      <c r="U16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AC16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1476,30 +1519,30 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="U17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AC17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
+      <c r="U17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AC17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>110</v>
+      <c r="A18" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1524,30 +1567,30 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="U18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AC18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
+      <c r="U18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AC18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1564,46 +1607,46 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
+      <c r="H19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1616,32 +1659,32 @@
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="L23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -1649,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1693,38 +1736,38 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8" t="s">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8" t="s">
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1768,38 +1811,38 @@
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8" t="s">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8" t="s">
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1843,38 +1886,38 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8" t="s">
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8" t="s">
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1918,38 +1961,38 @@
       <c r="P28">
         <v>1</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8" t="s">
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8" t="s">
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1993,36 +2036,36 @@
       <c r="P29">
         <v>1</v>
       </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8" t="s">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8" t="s">
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2066,38 +2109,38 @@
       <c r="P30">
         <v>1</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8" t="s">
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8" t="s">
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2141,38 +2184,38 @@
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8" t="s">
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8" t="s">
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2216,36 +2259,36 @@
       <c r="P32">
         <v>1</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8" t="s">
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2289,36 +2332,36 @@
       <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8" t="s">
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2362,38 +2405,38 @@
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8" t="s">
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8" t="s">
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2437,38 +2480,38 @@
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8" t="s">
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8" t="s">
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2512,38 +2555,38 @@
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8" t="s">
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8" t="s">
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2587,36 +2630,36 @@
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8" t="s">
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2660,36 +2703,36 @@
       <c r="P38">
         <v>1</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8" t="s">
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2733,75 +2776,83 @@
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8" t="s">
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="M41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="AA41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB41" s="10"/>
+    </row>
+    <row r="42" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="M41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="H42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L42" s="2" t="s">
+      <c r="P42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="AA42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB42" s="12"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2837,42 +2888,46 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O43" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
+      <c r="AA43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2899,55 +2954,42 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" t="s">
-        <v>30</v>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P44" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2974,128 +3016,104 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" t="s">
         <v>23</v>
       </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>30</v>
-      </c>
-      <c r="N46" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" t="s">
-        <v>29</v>
-      </c>
-      <c r="P46" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q46" s="8" t="s">
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3119,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3127,123 +3145,99 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" t="s">
-        <v>30</v>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O47" t="s">
-        <v>29</v>
-      </c>
-      <c r="P47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="AA47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>25</v>
       </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>30</v>
-      </c>
-      <c r="N48" t="s">
-        <v>31</v>
-      </c>
       <c r="O48" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3267,86 +3261,260 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="M49" t="s">
-        <v>30</v>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O49" t="s">
-        <v>29</v>
-      </c>
-      <c r="P49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8" t="s">
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-    </row>
-    <row r="52" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="H52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="L52" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3364,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3378,50 +3546,50 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="8" t="s">
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8" t="s">
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8" t="s">
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3439,611 +3607,587 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8" t="s">
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="8" t="s">
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+    </row>
+    <row r="56" spans="1:33" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+    </row>
+    <row r="59" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="L59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8" t="s">
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-    </row>
-    <row r="56" spans="1:33" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="AC60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE60" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF60" s="8"/>
-      <c r="AG60" s="8"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
-      <c r="Y61" s="8"/>
-      <c r="Z61" s="8"/>
-      <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
-      <c r="AG64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>1</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>1</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
-      <c r="Y67" s="8"/>
-      <c r="Z67" s="8"/>
-      <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>1</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>1</v>
-      </c>
+      <c r="A66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE67" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
       <c r="AC68">
         <v>0</v>
       </c>
       <c r="AD68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68">
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68">
         <v>0</v>
@@ -4051,48 +4195,48 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
       <c r="AC69">
         <v>0</v>
       </c>
       <c r="AD69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69">
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69">
         <v>1</v>
@@ -4100,39 +4244,39 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="8"/>
-      <c r="AB70" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
       <c r="AC70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -4141,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -4149,39 +4293,39 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
       <c r="AC71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -4190,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG71">
         <v>1</v>
@@ -4198,48 +4342,48 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
       <c r="AC72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -4247,137 +4391,137 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="8"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
       <c r="AC73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73">
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="8"/>
-      <c r="AA74" s="8"/>
-      <c r="AB74" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
       <c r="AC74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
       </c>
       <c r="AG74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
       <c r="AC75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -4386,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -4394,39 +4538,39 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
       <c r="AC76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -4435,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG76">
         <v>1</v>
@@ -4443,48 +4587,48 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
       <c r="AC77">
         <v>1</v>
       </c>
       <c r="AD77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE77">
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG77">
         <v>0</v>
@@ -4492,48 +4636,48 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8"/>
-      <c r="AB78" s="8"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+      <c r="AB78" s="10"/>
       <c r="AC78">
         <v>1</v>
       </c>
       <c r="AD78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE78">
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG78">
         <v>1</v>
@@ -4541,89 +4685,545 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
       <c r="AC79">
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>1</v>
       </c>
       <c r="AG79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="29:33" x14ac:dyDescent="0.3">
-      <c r="AC81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD81" s="8"/>
-      <c r="AE81" s="8"/>
-      <c r="AF81" s="8"/>
-      <c r="AG81" s="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84">
+        <v>1</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
+      <c r="AF86">
+        <v>1</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="AC88" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="B69:AB69"/>
-    <mergeCell ref="Y48:AB48"/>
+  <mergeCells count="165">
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="AC53:AG53"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="Y32:AB32"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="AC32:AG32"/>
+    <mergeCell ref="AC33:AG33"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="AC35:AG35"/>
+    <mergeCell ref="AC36:AG36"/>
+    <mergeCell ref="B78:AB78"/>
+    <mergeCell ref="B79:AB79"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="Y33:AB33"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="B71:AB71"/>
+    <mergeCell ref="B74:AB74"/>
+    <mergeCell ref="B76:AB76"/>
+    <mergeCell ref="B72:AB72"/>
+    <mergeCell ref="B73:AB73"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="B75:AB75"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="Q46:T46"/>
     <mergeCell ref="U47:X47"/>
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AC81:AG81"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="U49:X49"/>
+    <mergeCell ref="U50:X50"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y51:AB51"/>
+    <mergeCell ref="Y52:AB52"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="L58:M58"/>
     <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="Y55:AB55"/>
-    <mergeCell ref="Q56:T56"/>
     <mergeCell ref="U56:X56"/>
     <mergeCell ref="Y56:AB56"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="AE60:AG60"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="Y54:AB54"/>
-    <mergeCell ref="B76:AB76"/>
-    <mergeCell ref="B77:AB77"/>
-    <mergeCell ref="B78:AB78"/>
-    <mergeCell ref="B79:AB79"/>
-    <mergeCell ref="B61:AB61"/>
-    <mergeCell ref="B62:AB62"/>
-    <mergeCell ref="B63:AB63"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="B67:AB67"/>
+    <mergeCell ref="Q60:T60"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="Y60:AB60"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="AC60:AG60"/>
+    <mergeCell ref="AC61:AG61"/>
+    <mergeCell ref="AC55:AG55"/>
+    <mergeCell ref="AC39:AG39"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="Y55:AB55"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="Y26:AB26"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AC54:AG54"/>
+    <mergeCell ref="AC50:AG50"/>
+    <mergeCell ref="AC58:AG58"/>
+    <mergeCell ref="AC56:AG56"/>
+    <mergeCell ref="AC51:AG51"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -4633,128 +5233,64 @@
     <mergeCell ref="Q25:T25"/>
     <mergeCell ref="Q26:T26"/>
     <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="U44:X44"/>
     <mergeCell ref="J11:Q11"/>
     <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R13:AG13"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AC17:AG17"/>
     <mergeCell ref="Q36:T36"/>
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="U18:W18"/>
     <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Y54:AB54"/>
     <mergeCell ref="U32:X32"/>
     <mergeCell ref="U34:X34"/>
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Y26:AB26"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="AC55:AG55"/>
-    <mergeCell ref="AC56:AG56"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="Q31:T31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="U30:X30"/>
     <mergeCell ref="U33:X33"/>
     <mergeCell ref="U39:X39"/>
-    <mergeCell ref="AC53:AG53"/>
-    <mergeCell ref="AC54:AG54"/>
-    <mergeCell ref="AC48:AG48"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="Y46:AB46"/>
-    <mergeCell ref="Y44:AB44"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="AC39:AG39"/>
-    <mergeCell ref="AC43:AG43"/>
-    <mergeCell ref="AC44:AG44"/>
-    <mergeCell ref="AC45:AG45"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="AC33:AG33"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="AC35:AG35"/>
-    <mergeCell ref="AC36:AG36"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="AC32:AG32"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="B73:AB73"/>
-    <mergeCell ref="B74:AB74"/>
-    <mergeCell ref="B75:AB75"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="M41:P41"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="U49:X49"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="U48:X48"/>
     <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="B64:AB64"/>
-    <mergeCell ref="B65:AB65"/>
-    <mergeCell ref="B66:AB66"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="Q51:T51"/>
+    <mergeCell ref="AC88:AG88"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:X62"/>
+    <mergeCell ref="Y62:AB62"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="U63:X63"/>
+    <mergeCell ref="Y63:AB63"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="AE67:AG67"/>
+    <mergeCell ref="U61:X61"/>
+    <mergeCell ref="Y61:AB61"/>
+    <mergeCell ref="B83:AB83"/>
+    <mergeCell ref="B84:AB84"/>
+    <mergeCell ref="B85:AB85"/>
+    <mergeCell ref="B86:AB86"/>
     <mergeCell ref="B68:AB68"/>
+    <mergeCell ref="B69:AB69"/>
     <mergeCell ref="B70:AB70"/>
-    <mergeCell ref="B71:AB71"/>
-    <mergeCell ref="B72:AB72"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R13:AG13"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="Y32:AB32"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC47:AG47"/>
-    <mergeCell ref="AC50:AG50"/>
-    <mergeCell ref="AC51:AG51"/>
+    <mergeCell ref="AC62:AG62"/>
+    <mergeCell ref="AC63:AG63"/>
+    <mergeCell ref="B80:AB80"/>
+    <mergeCell ref="B81:AB81"/>
+    <mergeCell ref="B82:AB82"/>
+    <mergeCell ref="B77:AB77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
